--- a/machine_learning_and_stats/misc/lms_practice.xlsx
+++ b/machine_learning_and_stats/misc/lms_practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ueda\GIT\slides_marp\machine_learning_and_stats\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805FC6BE-C65B-4C9D-B44B-7378BDE7918A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0E0C31-A590-42C1-8A41-9AEAF3C29A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>avg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1880,6 +1892,12 @@
                 <c:pt idx="6">
                   <c:v>-0.25</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0147492625368733</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8997050147492625E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1889,6 +1907,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1914,6 +1941,531 @@
         <c:axId val="1030697583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030699503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1030699503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030697583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9808835073863503E-2"/>
+          <c:y val="0.2078083989501312"/>
+          <c:w val="0.85222104336655824"/>
+          <c:h val="0.74833364579427575"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>example3!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>example3!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E87-4926-AC4E-572ABF1911B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>example3!$B$2:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0147492625368733</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8997050147492625E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>example3!$E$4:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E87-4926-AC4E-572ABF1911B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1030697583"/>
+        <c:axId val="1030699503"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>example3!$G$2:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>example3!$H$2:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.4247787610619471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4837758112094397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5427728613569323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6017699115044248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6607669616519174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7197640117994102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7787610619469028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8377581120943953</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8967551622418881</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9557522123893807</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0147492625368733</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0737463126843658</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1327433628318584</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.191740412979351</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2507374631268435</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3097345132743365</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3687315634218291</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4277286135693217</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4867256637168142</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5457227138643068</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6047197640117994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4E87-4926-AC4E-572ABF1911B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1030697583"/>
+        <c:axId val="1030699503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1030697583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2258,6 +2810,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4323,6 +4915,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6134,16 +7242,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>67945</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>128905</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6170,10 +7278,213 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB76168-8C48-4A1A-A2C8-47DF653C3C32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.9217</cdr:x>
+      <cdr:y>0.68802</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98695</cdr:x>
+      <cdr:y>0.9424</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E301A28E-4F9D-0D44-6299-DBF374AE00F0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4843164" y="2204555"/>
+          <a:ext cx="342864" cy="815087"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2800" i="1" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2800" i="1" kern="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46357</cdr:x>
+      <cdr:y>0.02497</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52883</cdr:x>
+      <cdr:y>0.20831</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD97419-E2E3-0C7B-3078-4BE0450022BA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2435861" y="80010"/>
+          <a:ext cx="342917" cy="587460"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2800" i="1" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2800" i="1" kern="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -7197,10 +8508,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B76E8A-5227-4E74-A6A9-00733DF7EE34}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
@@ -7215,10 +8526,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -7236,10 +8553,19 @@
         <f>B2*B2</f>
         <v>4</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <f>B2*C2</f>
+        <v>6</v>
+      </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1">
+        <f>-10</f>
+        <v>-10</v>
+      </c>
+      <c r="H2" s="1">
+        <f>$B$11 *G2 +$B$10</f>
+        <v>1.4247787610619471</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -7257,10 +8583,19 @@
         <f t="shared" ref="D3:D5" si="0">B3*B3</f>
         <v>36</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E5" si="1">B3*C3</f>
+        <v>12</v>
+      </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1">
+        <f>G2+1</f>
+        <v>-9</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H22" si="2">$B$11 *G3 +$B$10</f>
+        <v>1.4837758112094397</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -7278,10 +8613,19 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G22" si="3">G3+1</f>
+        <v>-8</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5427728613569323</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -7299,10 +8643,19 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6017699115044248</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -7313,8 +8666,14 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6607669616519174</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -7325,8 +8684,14 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7197640117994102</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -7342,17 +8707,26 @@
         <v>-0.25</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:D8" si="1">AVERAGE(C2:C5)</f>
+        <f t="shared" ref="C8:E8" si="4">AVERAGE(C2:C5)</f>
         <v>2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>21.25</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7787610619469028</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -7365,8 +8739,14 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8377581120943953</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -7374,13 +8754,25 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="1"/>
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <f>(D8*C8-E8*B8)/(D8-B8*B8)</f>
+        <v>2.0147492625368733</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8967551622418881</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -7388,13 +8780,25 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="1"/>
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <f>(E8-B8*C8)/(D8-B8*B8)</f>
+        <v>5.8997050147492625E-2</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9557522123893807</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -7407,8 +8811,14 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0147492625368733</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -7421,8 +8831,14 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0737463126843658</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -7435,8 +8851,14 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1327433628318584</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -7449,13 +8871,89 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>2.191740412979351</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="G16" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2507374631268435</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8">
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3097345132743365</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8">
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3687315634218291</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8">
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4277286135693217</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8">
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4867256637168142</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8">
+      <c r="G21" s="1">
+        <f>G20+1</f>
+        <v>9</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5457227138643068</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8">
+      <c r="G22" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6047197640117994</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/machine_learning_and_stats/misc/lms_practice.xlsx
+++ b/machine_learning_and_stats/misc/lms_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ueda\GIT\slides_marp\machine_learning_and_stats\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0E0C31-A590-42C1-8A41-9AEAF3C29A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69D2CE1-B558-4659-AFEA-BA2D9CA4FE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="4548" windowWidth="17280" windowHeight="9984" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example1" sheetId="7" r:id="rId1"/>
@@ -8510,8 +8510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B76E8A-5227-4E74-A6A9-00733DF7EE34}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
@@ -8788,7 +8788,10 @@
         <v>5.8997050147492625E-2</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <f>D8*4</f>
+        <v>85</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1">

--- a/machine_learning_and_stats/misc/lms_practice.xlsx
+++ b/machine_learning_and_stats/misc/lms_practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ueda\GIT\slides_marp\machine_learning_and_stats\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ueda/GIT/slides_marp/machine_learning_and_stats/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69D2CE1-B558-4659-AFEA-BA2D9CA4FE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C6B14A-981A-4C4B-9150-5815443E73F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="4548" windowWidth="17280" windowHeight="9984" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20660" yWindow="2080" windowWidth="25400" windowHeight="20740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example1" sheetId="7" r:id="rId1"/>
@@ -2466,6 +2466,364 @@
           <c:orientation val="minMax"/>
           <c:max val="10"/>
           <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030699503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1030699503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030697583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9808835073863503E-2"/>
+          <c:y val="0.2078083989501312"/>
+          <c:w val="0.85222104336655824"/>
+          <c:h val="0.74833364579427575"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>example3!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>example3!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFE0-F442-8697-D612CCC4DCA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>example3!$B$2:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0147492625368733</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8997050147492625E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>example3!$E$4:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DFE0-F442-8697-D612CCC4DCA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1030697583"/>
+        <c:axId val="1030699503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1030697583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2850,6 +3208,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5431,6 +5829,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6025,6 +6939,171 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.9217</cdr:x>
+      <cdr:y>0.68802</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98695</cdr:x>
+      <cdr:y>0.9424</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E301A28E-4F9D-0D44-6299-DBF374AE00F0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4843164" y="2204555"/>
+          <a:ext cx="342864" cy="815087"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2800" i="1" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2800" i="1" kern="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46357</cdr:x>
+      <cdr:y>0.02497</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52883</cdr:x>
+      <cdr:y>0.20831</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD97419-E2E3-0C7B-3078-4BE0450022BA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2435861" y="80010"/>
+          <a:ext cx="342917" cy="587460"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2800" i="1" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2800" i="1" kern="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7316,6 +8395,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F436DEA-721E-F347-80AB-47E62DD92A74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7765,9 +8882,9 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.2">
+    <row r="1" spans="1:12" ht="28">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7785,7 +8902,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="24.9">
+    <row r="2" spans="1:12" ht="25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -7803,7 +8920,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="24.9">
+    <row r="3" spans="1:12" ht="25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -7821,7 +8938,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="24.9">
+    <row r="4" spans="1:12" ht="25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -7839,7 +8956,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="24.9">
+    <row r="5" spans="1:12" ht="25">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -7857,7 +8974,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="24.9">
+    <row r="6" spans="1:12" ht="25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -7875,7 +8992,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="24.9">
+    <row r="7" spans="1:12" ht="25">
       <c r="A7" s="2">
         <v>-3</v>
       </c>
@@ -7893,7 +9010,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="24.9">
+    <row r="8" spans="1:12" ht="25">
       <c r="A8" s="2">
         <v>-6</v>
       </c>
@@ -8138,9 +9255,9 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.2">
+    <row r="1" spans="1:13" ht="28">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8158,7 +9275,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="24.9">
+    <row r="2" spans="1:13" ht="25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -8176,7 +9293,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="24.9">
+    <row r="3" spans="1:13" ht="25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -8194,7 +9311,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="24.9">
+    <row r="4" spans="1:13" ht="25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -8212,7 +9329,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="24.9">
+    <row r="5" spans="1:13" ht="25">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -8230,7 +9347,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="24.9">
+    <row r="6" spans="1:13" ht="25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -8248,7 +9365,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="24.9">
+    <row r="7" spans="1:13" ht="25">
       <c r="A7" s="2">
         <v>-3</v>
       </c>
@@ -8266,7 +9383,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="24.9">
+    <row r="8" spans="1:13" ht="25">
       <c r="A8" s="2">
         <v>-6</v>
       </c>
@@ -8511,12 +9628,12 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.2">
+    <row r="1" spans="1:13" ht="28">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8542,7 +9659,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="24.9">
+    <row r="2" spans="1:13" ht="25">
       <c r="B2" s="2">
         <v>2</v>
       </c>
@@ -8572,7 +9689,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="24.9">
+    <row r="3" spans="1:13" ht="25">
       <c r="B3" s="2">
         <v>6</v>
       </c>
@@ -8602,7 +9719,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="24.9">
+    <row r="4" spans="1:13" ht="25">
       <c r="B4" s="2">
         <v>-3</v>
       </c>
@@ -8632,7 +9749,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="24.9">
+    <row r="5" spans="1:13" ht="25">
       <c r="B5" s="2">
         <v>-6</v>
       </c>
